--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>131.21875</v>
+        <v>82.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -573,17 +576,20 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
-        </is>
+          <t>2025-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>-22.36233723958333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250923</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -594,30 +600,30 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>109.46875</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>7006</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -626,14 +632,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
         <v>39749</v>
@@ -648,13 +654,16 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
-        </is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>-14.43778211805556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251227</v>
+        <v>251395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -665,30 +674,30 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -697,17 +706,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -715,17 +724,20 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>-14.47413194444444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251225</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -733,29 +745,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -768,17 +780,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -786,17 +798,20 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
+          <t>2025-04-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251421</v>
+        <v>251453</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -807,30 +822,30 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>81.9375</v>
+        <v>78.125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5244</v>
+        <v>5000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -839,17 +854,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39762</v>
+        <v>39742</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -857,17 +872,20 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39762</v>
+        <v>39742</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
-        </is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251268</v>
+        <v>251396</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -875,33 +893,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -910,17 +928,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -928,17 +946,20 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
-        </is>
+          <t>2025-05-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>-5.592513020833334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251371</v>
+        <v>251548</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -946,33 +967,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -991,7 +1012,7 @@
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -999,51 +1020,54 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
+          <t>2025-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-2.416059027777778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251782</v>
+        <v>251547</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>188.640625</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12073</v>
+        <v>13129</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1052,17 +1076,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1070,28 +1094,31 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
+          <t>2025-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>-2.443691314548611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251477</v>
+        <v>251742</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>422.5211267605634</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1100,21 +1127,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>29999</v>
+        <v>8226</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1123,17 +1150,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1141,28 +1168,31 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251396</v>
+        <v>251268</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
-        <v>37.08196721311475</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1171,21 +1201,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1194,17 +1224,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1212,17 +1242,20 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
-        </is>
+          <t>2025-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251453</v>
+        <v>251164</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1230,33 +1263,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>102.0408163265306</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1269,13 +1302,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39742</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1283,17 +1316,20 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39742</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>-16.49866780045139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>251840</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1301,33 +1337,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>86.8360655737705</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>5714</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1340,13 +1376,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1354,51 +1390,54 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251391</v>
+        <v>250923</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>119.6938775510204</v>
+        <v>109.46875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5865</v>
+        <v>7006</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1407,14 +1446,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
         <v>39749</v>
@@ -1429,47 +1468,50 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>-31.51430121527778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1478,17 +1520,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1496,51 +1538,54 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
+          <t>2025-03-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>-56.54666471048611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251548</v>
+        <v>251456</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>206.90625</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13242</v>
+        <v>8999</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1553,13 +1598,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1567,51 +1612,54 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251547</v>
+        <v>251477</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>267.9387755102041</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>13129</v>
+        <v>29999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1620,17 +1668,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1638,32 +1686,35 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>-11.47188967136574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1678,11 +1729,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1691,17 +1742,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1709,51 +1760,54 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
+          <t>2025-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>-8.526106770833334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251395</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>31.85915492957746</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1762,17 +1816,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1780,17 +1834,20 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>-3.5365234375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251421</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1801,30 +1858,30 @@
         <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>140.609375</v>
+        <v>81.9375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>5244</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1833,17 +1890,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39746</v>
+        <v>39762</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1851,51 +1908,54 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>39762</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
+          <t>2025-05-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251229</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>163.9344262295082</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>18739</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1904,7 +1964,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1914,7 +1974,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1922,51 +1982,54 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
-        </is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251782</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>307.1967213114754</v>
+        <v>188.640625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:11</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>12073</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1975,17 +2038,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39723</v>
+        <v>39754</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1993,12 +2056,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>39754</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
+          <t>2025-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2071,6 +2137,9 @@
           <t>2025-05-12 00:00:00</t>
         </is>
       </c>
+      <c r="R23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2142,10 +2211,13 @@
           <t>2025-04-16 00:00:00</t>
         </is>
       </c>
+      <c r="R24" s="1" t="n">
+        <v>-23.44236111111111</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2153,10 +2225,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2165,21 +2237,21 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2192,13 +2264,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2206,17 +2278,20 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-23.46666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251054</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2227,30 +2302,30 @@
         <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2263,13 +2338,13 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2277,12 +2352,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="27">
@@ -2355,6 +2433,9 @@
           <t>2025-05-14 00:00:00</t>
         </is>
       </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2362,33 +2443,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28" t="n">
-        <v>623.4084507042254</v>
+        <v>903.3061224489796</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-08 12:40:04</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-08 12:40:04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:24</t>
+          <t>2025-05-12 11:43:23</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2424,44 +2505,47 @@
           <t>2025-05-05 00:00:00</t>
         </is>
       </c>
+      <c r="R28" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251651</v>
+        <v>251416</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>659.5774647887324</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-09 10:10:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>46830</v>
+        <v>11222</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2470,14 +2554,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
         <v>39755</v>
@@ -2490,47 +2574,50 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251416</v>
+        <v>251651</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>175.34375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:07</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>11222</v>
+        <v>46830</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2539,14 +2626,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N30" t="n">
         <v>39755</v>
@@ -2559,8 +2646,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2569,33 +2659,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>110.9183673469388</v>
+        <v>84.921875</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:54:40</t>
+          <t>2025-05-09 10:29:10</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:54:40</t>
+          <t>2025-05-09 10:29:10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:35</t>
+          <t>2025-05-09 11:54:05</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2632,6 +2722,9 @@
         <is>
           <t>2025-05-07 00:00:00</t>
         </is>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2640,33 +2733,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>44.54098360655738</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:22</t>
+          <t>2025-05-09 10:26:07</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:22</t>
+          <t>2025-05-09 10:26:07</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:55</t>
+          <t>2025-05-09 11:04:23</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2703,6 +2796,9 @@
         <is>
           <t>2025-05-07 00:00:00</t>
         </is>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2715,29 +2811,29 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>112.9344262295082</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:55</t>
+          <t>2025-05-09 10:10:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:55</t>
+          <t>2025-05-09 10:40:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:55</t>
+          <t>2025-05-09 10:40:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-05-09 12:32:57</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2774,6 +2870,9 @@
         <is>
           <t>2025-05-07 00:00:00</t>
         </is>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2782,33 +2881,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>255.1020408163265</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:35</t>
+          <t>2025-05-09 11:04:23</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:35</t>
+          <t>2025-05-09 11:19:23</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:35</t>
+          <t>2025-05-09 11:19:23</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-09 14:15:27</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2846,44 +2945,47 @@
           <t>2025-04-30 00:00:00</t>
         </is>
       </c>
+      <c r="R34" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251546</v>
+        <v>251340</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>101.03125</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:07</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:07</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:07</t>
+          <t>2025-05-09 11:36:31</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:09</t>
+          <t>2025-05-12 11:18:29</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6466</v>
+        <v>32800</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2892,18 +2994,18 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2914,47 +3016,50 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251505</v>
+        <v>251546</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>259.1818181818182</v>
+        <v>101.03125</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:54:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 12:09:05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 12:09:05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:50:07</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>14255</v>
+        <v>6466</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2985,47 +3090,50 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
+          <t>2025-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251846</v>
+        <v>251505</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>186.7540983606557</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:11</t>
+          <t>2025-05-09 12:32:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:11</t>
+          <t>2025-05-09 12:57:57</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:11</t>
+          <t>2025-05-09 12:57:57</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:57</t>
+          <t>2025-05-12 08:51:38</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>11392</v>
+        <v>14255</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3038,7 +3146,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3056,47 +3164,50 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251519</v>
+        <v>251846</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D38" t="n">
-        <v>215.983606557377</v>
+        <v>207.1272727272727</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:51</t>
+          <t>2025-05-09 13:18:05</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:51</t>
+          <t>2025-05-09 13:18:05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:50</t>
+          <t>2025-05-12 08:45:13</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>13175</v>
+        <v>11392</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3116,7 +3227,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3127,13 +3238,16 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>245275</v>
+        <v>251519</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3141,33 +3255,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>379.59375</v>
+        <v>205.859375</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:09</t>
+          <t>2025-05-09 13:50:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:09</t>
+          <t>2025-05-09 14:11:07</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:09</t>
+          <t>2025-05-09 14:11:07</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:45</t>
+          <t>2025-05-12 09:36:59</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>24294</v>
+        <v>13175</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3176,18 +3290,18 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3198,47 +3312,50 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
+          <t>2025-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251340</v>
+        <v>245275</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
-        <v>461.9718309859155</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:24</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:24</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:24</t>
+          <t>2025-05-12 07:04:25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:22</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>32800</v>
+        <v>24294</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3247,18 +3364,18 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3269,8 +3386,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
+          <t>2025-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3279,33 +3399,33 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>405.3623188405797</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 14:15:27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 14:44:27</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 14:44:27</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 13:18:23</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3342,6 +3462,9 @@
         <is>
           <t>2025-12-31 00:00:00</t>
         </is>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3350,33 +3473,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>140.2535211267606</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-12 10:04:19</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3413,6 +3536,9 @@
         <is>
           <t>2023-11-06 00:00:00</t>
         </is>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3421,33 +3547,33 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>36.5</v>
       </c>
       <c r="D43" t="n">
-        <v>280.2295081967213</v>
+        <v>310.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:57</t>
+          <t>2025-05-12 08:45:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:03:57</t>
+          <t>2025-05-12 09:21:43</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:03:57</t>
+          <t>2025-05-12 09:21:43</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:10</t>
+          <t>2025-05-12 14:32:31</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3484,6 +3610,9 @@
         <is>
           <t>2025-04-28 00:00:00</t>
         </is>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3492,33 +3621,33 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>197.1836734693877</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-12 08:51:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:41</t>
+          <t>2025-05-12 09:16:38</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:41</t>
+          <t>2025-05-12 09:16:38</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:52</t>
+          <t>2025-05-12 11:55:01</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3555,6 +3684,9 @@
         <is>
           <t>2025-04-28 00:00:00</t>
         </is>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3563,33 +3695,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>98.81818181818181</v>
+        <v>84.921875</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 09:36:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 09:53:59</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 09:53:59</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:18:54</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3626,6 +3758,9 @@
         <is>
           <t>2025-04-28 00:00:00</t>
         </is>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3634,33 +3769,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>142.3114754098361</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:50</t>
+          <t>2025-05-12 10:04:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:50</t>
+          <t>2025-05-12 10:34:19</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:50</t>
+          <t>2025-05-12 10:34:19</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:08</t>
+          <t>2025-05-12 12:40:07</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3698,44 +3833,47 @@
           <t>2025-04-30 00:00:00</t>
         </is>
       </c>
+      <c r="R46" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251594</v>
+        <v>243569</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>91.07042253521126</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-12 11:18:29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-12 11:35:29</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-12 11:35:29</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-12 12:12:07</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>6466</v>
+        <v>2601</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3744,18 +3882,18 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -3766,47 +3904,50 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
-        </is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244354</v>
+        <v>251594</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>78.36363636363636</v>
+        <v>101.03125</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:18:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 11:35:54</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 11:35:54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 13:16:56</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4310</v>
+        <v>6466</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3837,43 +3978,46 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
-        </is>
+          <t>2025-05-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244355</v>
+        <v>244354</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>70.65573770491804</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:08</t>
+          <t>2025-05-12 11:43:23</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:08</t>
+          <t>2025-05-12 12:25:23</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:08</t>
+          <t>2025-05-12 12:25:23</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-12 13:53:20</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3911,44 +4055,47 @@
           <t>2025-05-08 00:00:00</t>
         </is>
       </c>
+      <c r="R49" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244204</v>
+        <v>244355</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>70.85714285714286</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:52</t>
+          <t>2025-05-12 11:55:01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:52</t>
+          <t>2025-05-12 12:15:01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:52</t>
+          <t>2025-05-12 12:15:01</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:44</t>
+          <t>2025-05-12 13:25:41</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3472</v>
+        <v>4310</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3982,44 +4129,47 @@
           <t>2025-05-08 00:00:00</t>
         </is>
       </c>
+      <c r="R50" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251743</v>
+        <v>245623</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>151.7746478873239</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-12 12:12:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-12 12:44:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-12 12:44:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-13 10:56:13</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10776</v>
+        <v>26419</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4028,14 +4178,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4050,47 +4200,50 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
+          <t>2025-01-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251809</v>
+        <v>244204</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>122.2676056338028</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8681</v>
+        <v>3472</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4121,47 +4274,50 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
-        </is>
+          <t>2025-05-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243569</v>
+        <v>251743</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>40.640625</v>
+        <v>156.1739130434783</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:45</t>
+          <t>2025-05-12 12:40:07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:45</t>
+          <t>2025-05-12 13:05:07</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:45</t>
+          <t>2025-05-12 13:05:07</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:23</t>
+          <t>2025-05-13 07:41:18</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2601</v>
+        <v>10776</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4170,18 +4326,18 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -4192,47 +4348,50 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
-        </is>
+          <t>2025-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250819</v>
+        <v>251809</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34.5</v>
+        <v>85</v>
       </c>
       <c r="D54" t="n">
-        <v>155.0363636363636</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 12:46:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 14:11:35</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 14:11:35</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 08:13:51</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8527</v>
+        <v>8681</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4245,14 +4404,14 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4263,47 +4422,50 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
+          <t>2025-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>245623</v>
+        <v>250819</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>433.0983606557377</v>
+        <v>133.234375</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:10</t>
+          <t>2025-05-12 13:16:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:30:10</t>
+          <t>2025-05-12 13:35:56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:30:10</t>
+          <t>2025-05-12 13:35:56</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 13:43:16</t>
+          <t>2025-05-13 07:49:10</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>26419</v>
+        <v>8527</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4312,18 +4474,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4334,8 +4496,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
-        </is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4344,33 +4509,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>78.81967213114754</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-12 13:18:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-12 13:43:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-12 13:43:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:37</t>
+          <t>2025-05-12 14:51:06</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4407,6 +4572,9 @@
         <is>
           <t>2025-04-23 00:00:00</t>
         </is>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4415,33 +4583,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>78.75510204081633</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:44</t>
+          <t>2025-05-12 13:25:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:44</t>
+          <t>2025-05-12 14:05:41</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:44</t>
+          <t>2025-05-12 14:05:41</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:29</t>
+          <t>2025-05-13 07:08:57</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4478,6 +4646,9 @@
         <is>
           <t>2025-04-28 00:00:00</t>
         </is>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4486,33 +4657,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>79.9375</v>
+        <v>104.4081632653061</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:23</t>
+          <t>2025-05-12 13:53:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:23</t>
+          <t>2025-05-12 14:38:20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:23</t>
+          <t>2025-05-12 14:38:20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:19</t>
+          <t>2025-05-13 08:22:45</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4549,6 +4720,9 @@
         <is>
           <t>2025-04-28 00:00:00</t>
         </is>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4557,33 +4731,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>22.01408450704225</v>
+        <v>25.62295081967213</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:22</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:22</t>
+          <t>2025-05-12 14:35:37</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:22</t>
+          <t>2025-05-12 14:35:37</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:23</t>
+          <t>2025-05-13 07:01:14</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4620,6 +4794,9 @@
         <is>
           <t>2025-05-05 00:00:00</t>
         </is>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4628,33 +4805,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="D60" t="n">
-        <v>72.46376811594203</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 14:32:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:21</t>
+          <t>2025-05-13 07:11:01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:21</t>
+          <t>2025-05-13 07:11:01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:49</t>
+          <t>2025-05-13 08:41:55</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4692,44 +4869,47 @@
           <t>2025-05-06 00:00:00</t>
         </is>
       </c>
+      <c r="R60" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243335</v>
+        <v>251761</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>464.8450704225352</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:23</t>
+          <t>2025-05-12 14:51:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:23</t>
+          <t>2025-05-13 07:08:06</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:23</t>
+          <t>2025-05-13 07:08:06</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:14</t>
+          <t>2025-05-13 10:15:08</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>33004</v>
+        <v>13279</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4738,14 +4918,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4760,47 +4940,50 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
-        </is>
+          <t>2025-05-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251761</v>
+        <v>243335</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>187.0281690140845</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-13 07:01:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-13 07:41:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-13 07:41:14</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-14 08:42:17</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>13279</v>
+        <v>33004</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4809,14 +4992,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4831,47 +5014,50 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
-        </is>
+          <t>2024-08-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251109</v>
+        <v>244023</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>266.5915492957747</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-13 07:08:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-13 07:38:57</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-13 07:38:57</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-13 07:55:17</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>18928</v>
+        <v>997</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4880,11 +5066,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -4902,47 +5088,50 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
+          <t>2024-09-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>244023</v>
+        <v>251283</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>16.34426229508197</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:37</t>
+          <t>2025-05-13 07:41:18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:37</t>
+          <t>2025-05-13 08:16:18</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:37</t>
+          <t>2025-05-13 08:16:18</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:58</t>
+          <t>2025-05-13 08:27:13</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>997</v>
+        <v>754</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4951,7 +5140,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4973,43 +5162,46 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
-        </is>
+          <t>2025-03-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251283</v>
+        <v>251245</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>10.92753623188406</v>
+        <v>11.78125</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:49</t>
+          <t>2025-05-13 07:49:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:49</t>
+          <t>2025-05-13 08:04:10</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:49</t>
+          <t>2025-05-13 08:04:10</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:45</t>
+          <t>2025-05-13 08:15:57</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5044,13 +5236,16 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
-        </is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251245</v>
+        <v>251061</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5061,30 +5256,30 @@
         <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>12.36065573770492</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:58</t>
+          <t>2025-05-13 07:55:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:58</t>
+          <t>2025-05-13 08:15:17</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:58</t>
+          <t>2025-05-13 08:15:17</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:19</t>
+          <t>2025-05-13 14:48:41</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>754</v>
+        <v>23997</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5115,47 +5310,50 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
-        </is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251061</v>
+        <v>251109</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D67" t="n">
-        <v>374.953125</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:19</t>
+          <t>2025-05-13 08:13:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:19</t>
+          <t>2025-05-13 09:48:51</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:19</t>
+          <t>2025-05-13 09:48:51</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:16</t>
+          <t>2025-05-13 14:15:27</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>23997</v>
+        <v>18928</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5164,11 +5362,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5186,8 +5384,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5196,33 +5397,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>549.6734693877551</v>
+        <v>420.84375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:29</t>
+          <t>2025-05-13 08:15:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:29</t>
+          <t>2025-05-13 08:30:57</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:29</t>
+          <t>2025-05-13 08:30:57</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 10:37:09</t>
+          <t>2025-05-14 07:31:47</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5259,6 +5460,9 @@
         <is>
           <t>2025-05-09 00:00:00</t>
         </is>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -5267,33 +5471,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>218.2181818181818</v>
+        <v>244.9387755102041</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 08:22:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:57:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 08:57:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:42</t>
+          <t>2025-05-13 13:02:41</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5330,6 +5534,9 @@
         <is>
           <t>2025-05-09 00:00:00</t>
         </is>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -5338,33 +5545,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>91.26229508196721</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:19</t>
+          <t>2025-05-13 08:27:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:45:19</t>
+          <t>2025-05-13 09:07:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:45:19</t>
+          <t>2025-05-13 09:07:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:35</t>
+          <t>2025-05-13 10:27:54</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5401,6 +5608,9 @@
         <is>
           <t>2025-05-09 00:00:00</t>
         </is>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5409,33 +5619,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D71" t="n">
-        <v>100.9710144927536</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:45</t>
+          <t>2025-05-13 08:41:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:58:45</t>
+          <t>2025-05-13 09:22:25</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:58:45</t>
+          <t>2025-05-13 09:22:25</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:39:43</t>
+          <t>2025-05-13 11:29:06</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5472,6 +5682,9 @@
         <is>
           <t>2025-05-09 00:00:00</t>
         </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -5491,22 +5704,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-13 10:15:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-13 10:30:08</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-13 10:30:08</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-13 12:10:53</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5543,6 +5756,9 @@
         <is>
           <t>2025-05-09 00:00:00</t>
         </is>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -5551,33 +5767,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>102.0655737704918</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:35</t>
+          <t>2025-05-13 10:27:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:35</t>
+          <t>2025-05-13 10:57:54</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:35</t>
+          <t>2025-05-13 10:57:54</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:39</t>
+          <t>2025-05-13 12:28:08</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5615,44 +5831,47 @@
           <t>2025-05-09 00:00:00</t>
         </is>
       </c>
+      <c r="R73" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251462</v>
+        <v>251750</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>90.23188405797102</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:39:43</t>
+          <t>2025-05-13 10:56:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:14:43</t>
+          <t>2025-05-13 11:13:13</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 12:14:43</t>
+          <t>2025-05-13 11:13:13</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:57</t>
+          <t>2025-05-13 12:08:01</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6226</v>
+        <v>3891</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5661,18 +5880,18 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -5683,13 +5902,16 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251467</v>
+        <v>251462</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5697,29 +5919,29 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="D75" t="n">
         <v>113.2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:42</t>
+          <t>2025-05-13 11:29:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:12</t>
+          <t>2025-05-13 12:03:36</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:12</t>
+          <t>2025-05-13 12:03:36</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:24</t>
+          <t>2025-05-13 13:56:48</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5757,44 +5979,47 @@
           <t>2025-05-09 00:00:00</t>
         </is>
       </c>
+      <c r="R75" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251374</v>
+        <v>251987</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>385.112676056338</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-13 12:08:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-13 12:44:01</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-13 12:44:01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-21 14:09:10</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>27343</v>
+        <v>210526</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5803,14 +6028,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5825,47 +6050,50 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
+          <t>2025-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251580</v>
+        <v>251467</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>117.2622950819672</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:39</t>
+          <t>2025-05-13 12:10:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:39</t>
+          <t>2025-05-13 12:29:53</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:39</t>
+          <t>2025-05-13 12:29:53</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:55</t>
+          <t>2025-05-13 13:57:34</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5878,7 +6106,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -5896,47 +6124,50 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251557</v>
+        <v>251374</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D78" t="n">
-        <v>109.9180327868852</v>
+        <v>396.2753623188406</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:43:16</t>
+          <t>2025-05-13 12:28:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:16</t>
+          <t>2025-05-13 13:18:08</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:16</t>
+          <t>2025-05-13 13:18:08</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:13:11</t>
+          <t>2025-05-14 11:54:25</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6705</v>
+        <v>27343</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -5945,11 +6176,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -5970,44 +6201,47 @@
           <t>2025-05-15 00:00:00</t>
         </is>
       </c>
+      <c r="R78" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251562</v>
+        <v>251580</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>118</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:57</t>
+          <t>2025-05-13 13:02:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:57</t>
+          <t>2025-05-13 13:47:41</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:57</t>
+          <t>2025-05-13 13:47:41</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:57</t>
+          <t>2025-05-14 08:13:40</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>8142</v>
+        <v>7153</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6020,7 +6254,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6040,6 +6274,9 @@
         <is>
           <t>2025-05-15 00:00:00</t>
         </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6048,33 +6285,33 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>80</v>
+        <v>40.5</v>
       </c>
       <c r="D80" t="n">
-        <v>230.1408450704225</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-13 13:56:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-13 14:37:18</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-13 14:37:18</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:40</t>
+          <t>2025-05-14 11:34:23</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6112,44 +6349,47 @@
           <t>2025-05-12 00:00:00</t>
         </is>
       </c>
+      <c r="R80" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251260</v>
+        <v>251557</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>146.390625</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:16</t>
+          <t>2025-05-13 13:57:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:27:16</t>
+          <t>2025-05-13 14:12:34</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:27:16</t>
+          <t>2025-05-13 14:12:34</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:40</t>
+          <t>2025-05-14 07:47:00</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>9369</v>
+        <v>6705</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6158,18 +6398,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -6180,47 +6420,50 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
-        </is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251062</v>
+        <v>251562</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>38.5</v>
+        <v>105</v>
       </c>
       <c r="D82" t="n">
-        <v>411.3454545454546</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:24</t>
+          <t>2025-05-13 14:15:27</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:54</t>
+          <t>2025-05-14 08:00:27</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:54</t>
+          <t>2025-05-14 08:00:27</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 14:55:15</t>
+          <t>2025-05-14 09:55:07</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>22624</v>
+        <v>8142</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6229,11 +6472,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6251,47 +6494,50 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251750</v>
+        <v>251260</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>54.80281690140845</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:14</t>
+          <t>2025-05-13 14:48:41</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:00:14</t>
+          <t>2025-05-14 07:08:41</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:00:14</t>
+          <t>2025-05-14 07:08:41</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 08:55:02</t>
+          <t>2025-05-14 09:42:16</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3891</v>
+        <v>9369</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6300,14 +6546,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6322,47 +6568,50 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
+          <t>2025-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251252</v>
+        <v>251062</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>247.2622950819672</v>
+        <v>353.5</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:55</t>
+          <t>2025-05-14 07:31:47</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:55</t>
+          <t>2025-05-14 07:46:47</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:55</t>
+          <t>2025-05-14 07:46:47</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:10</t>
+          <t>2025-05-14 13:40:17</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>15083</v>
+        <v>22624</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6396,44 +6645,47 @@
           <t>2025-05-23 00:00:00</t>
         </is>
       </c>
+      <c r="R84" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251251</v>
+        <v>251252</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>229.8550724637681</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:57</t>
+          <t>2025-05-14 07:47:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:57</t>
+          <t>2025-05-14 08:10:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:57</t>
+          <t>2025-05-14 08:10:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 12:42:48</t>
+          <t>2025-05-14 11:42:27</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>15860</v>
+        <v>15083</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6467,44 +6719,47 @@
           <t>2025-05-23 00:00:00</t>
         </is>
       </c>
+      <c r="R85" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251249</v>
+        <v>251251</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>78</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:13:11</t>
+          <t>2025-05-14 08:13:40</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:46:11</t>
+          <t>2025-05-14 08:58:40</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:46:11</t>
+          <t>2025-05-14 08:58:40</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:11</t>
+          <t>2025-05-14 14:22:20</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4758</v>
+        <v>15860</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6535,47 +6790,50 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
-        </is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D87" t="n">
-        <v>2965.154929577465</v>
+        <v>78</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 08:55:02</t>
+          <t>2025-05-14 08:42:17</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:31:02</t>
+          <t>2025-05-14 09:26:17</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:31:02</t>
+          <t>2025-05-14 09:26:17</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-22 10:56:11</t>
+          <t>2025-05-14 10:44:17</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6584,14 +6842,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
         <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6606,8 +6864,11 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
-        </is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6616,33 +6877,33 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>292.796875</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:40</t>
+          <t>2025-05-14 09:42:16</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:40</t>
+          <t>2025-05-14 10:02:16</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:40</t>
+          <t>2025-05-14 10:02:16</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-15 07:01:28</t>
+          <t>2025-05-15 07:09:28</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -6679,6 +6940,9 @@
         <is>
           <t>2025-06-19 00:00:00</t>
         </is>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -6698,22 +6962,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:11</t>
+          <t>2025-05-14 10:44:17</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-14 10:46:11</t>
+          <t>2025-05-14 11:26:17</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-14 10:46:11</t>
+          <t>2025-05-14 11:26:17</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-06-09 07:56:59</t>
+          <t>2025-06-09 08:37:04</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -6750,6 +7014,9 @@
         <is>
           <t>2025-12-31 00:00:00</t>
         </is>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6762,29 +7029,29 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
         <v>1727.676056338028</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-14 11:42:27</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-14 12:16:27</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-14 12:16:27</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-20 09:16:21</t>
+          <t>2025-05-20 09:04:07</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -6821,6 +7088,9 @@
         <is>
           <t>2025-12-31 00:00:00</t>
         </is>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-22.36233723958333</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="3">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-14.43778211805556</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-14.47413194444444</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="5">
@@ -789,8 +789,10 @@
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39666</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -863,8 +865,10 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39742</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39742 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -880,7 +884,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -954,7 +958,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-5.592513020833334</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1032,7 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.416059027777778</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1106,7 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.443691314548611</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1180,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="11">
@@ -1233,8 +1237,10 @@
       <c r="M11" t="n">
         <v>76</v>
       </c>
-      <c r="N11" t="n">
-        <v>39666</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1250,7 +1256,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1324,7 +1330,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-16.49866780045139</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="13">
@@ -1398,7 +1404,7 @@
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="14">
@@ -1472,7 +1478,7 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-31.51430121527778</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="15">
@@ -1546,7 +1552,7 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-56.54666471048611</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="16">
@@ -1620,7 +1626,7 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="17">
@@ -1694,7 +1700,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-11.47188967136574</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="18">
@@ -1768,7 +1774,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-8.526106770833334</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="19">
@@ -1842,7 +1848,7 @@
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-3.5365234375</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="20">
@@ -1899,8 +1905,10 @@
       <c r="M20" t="n">
         <v>76</v>
       </c>
-      <c r="N20" t="n">
-        <v>39762</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39762 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1916,7 +1924,7 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1973,8 +1981,10 @@
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39723</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39723 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2064,7 +2074,7 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="23">
@@ -2138,7 +2148,7 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="24">
@@ -2212,7 +2222,7 @@
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-23.44236111111111</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="25">
@@ -2286,7 +2296,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-23.46666666666667</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -2343,8 +2353,10 @@
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39750</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2417,8 +2429,10 @@
       <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N27" t="n">
-        <v>39764</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2707,11 +2721,6 @@
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
@@ -2781,11 +2790,6 @@
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
@@ -2855,11 +2859,6 @@
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
@@ -2929,11 +2928,6 @@
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
@@ -3003,11 +2997,6 @@
       <c r="M35" t="n">
         <v>76</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
@@ -3077,11 +3066,6 @@
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
@@ -3151,11 +3135,6 @@
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -3225,11 +3204,6 @@
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
@@ -3299,11 +3273,6 @@
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
@@ -3373,11 +3342,6 @@
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -3447,11 +3411,6 @@
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
@@ -3521,11 +3480,6 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
@@ -3595,11 +3549,6 @@
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
@@ -3669,11 +3618,6 @@
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
@@ -3743,11 +3687,6 @@
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
@@ -3817,11 +3756,6 @@
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
@@ -3891,11 +3825,6 @@
       <c r="M47" t="n">
         <v>76</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
@@ -3965,11 +3894,6 @@
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
@@ -4039,11 +3963,6 @@
       <c r="M49" t="n">
         <v>70</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
@@ -4113,11 +4032,6 @@
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
@@ -4187,11 +4101,6 @@
       <c r="M51" t="n">
         <v>152</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
@@ -4261,11 +4170,6 @@
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
@@ -4335,11 +4239,6 @@
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
@@ -4409,11 +4308,6 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
@@ -4483,11 +4377,6 @@
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
@@ -4557,11 +4446,6 @@
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
@@ -4631,11 +4515,6 @@
       <c r="M57" t="n">
         <v>70</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
@@ -4705,11 +4584,6 @@
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
@@ -4779,11 +4653,6 @@
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
@@ -4853,11 +4722,6 @@
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
@@ -4927,11 +4791,6 @@
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
@@ -5001,11 +4860,6 @@
       <c r="M62" t="n">
         <v>152</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
@@ -5075,11 +4929,6 @@
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
@@ -5149,11 +4998,6 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
@@ -5223,11 +5067,6 @@
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
@@ -5297,11 +5136,6 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
@@ -5371,11 +5205,6 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
@@ -5445,11 +5274,6 @@
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
@@ -5519,11 +5343,6 @@
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
@@ -5593,11 +5412,6 @@
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
@@ -5667,11 +5481,6 @@
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
@@ -5741,11 +5550,6 @@
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
@@ -5815,11 +5619,6 @@
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
@@ -5889,11 +5688,6 @@
       <c r="M74" t="n">
         <v>152</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
@@ -5963,11 +5757,6 @@
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
@@ -6037,11 +5826,6 @@
       <c r="M76" t="n">
         <v>76</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
@@ -6111,11 +5895,6 @@
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
@@ -6185,11 +5964,6 @@
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
@@ -6259,11 +6033,6 @@
       <c r="M79" t="n">
         <v>70</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
@@ -6333,11 +6102,6 @@
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
@@ -6407,11 +6171,6 @@
       <c r="M81" t="n">
         <v>70</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
@@ -6481,11 +6240,6 @@
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
@@ -6555,11 +6309,6 @@
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O83" t="n">
         <v>0</v>
       </c>
@@ -6629,11 +6378,6 @@
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
@@ -6703,11 +6447,6 @@
       <c r="M85" t="n">
         <v>70</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O85" t="n">
         <v>0</v>
       </c>
@@ -6777,11 +6516,6 @@
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O86" t="n">
         <v>0</v>
       </c>
@@ -6851,11 +6585,6 @@
       <c r="M87" t="n">
         <v>70</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
@@ -6925,11 +6654,6 @@
       <c r="M88" t="n">
         <v>70</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
@@ -6999,11 +6723,6 @@
       <c r="M89" t="n">
         <v>76</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
       <c r="O89" t="n">
         <v>0</v>
       </c>
@@ -7072,11 +6791,6 @@
       </c>
       <c r="M90" t="n">
         <v>76</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
       </c>
       <c r="O90" t="n">
         <v>0</v>

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -791,7 +791,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39666 (non in estrazione)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>39742 (esterno)</t>
+          <t>39742 (non in estrazione)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39666 (non in estrazione)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>39762 (esterno)</t>
+          <t>39762 (non in estrazione)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>39723 (non in estrazione)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>39750 (non in estrazione)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>39764 (non in estrazione)</t>
+          <t>39764 (esterno)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>82.765625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,50 +580,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,7 +645,7 @@
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -650,54 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251395</v>
+        <v>251456</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>35.34375</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2262</v>
+        <v>8999</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -710,13 +716,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -724,54 +730,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-2.611839708564815</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251371</v>
+        <v>251284</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -780,19 +789,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -800,74 +807,77 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251453</v>
+        <v>251706</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>78.125</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>39742 (non in estrazione)</t>
+          <t>39764 (esterno)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -876,20 +886,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39742</v>
+        <v>39764</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251396</v>
+        <v>251455</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -897,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -936,7 +949,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -954,16 +967,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251548</v>
+        <v>251391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -971,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>206.90625</v>
+        <v>91.640625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13242</v>
+        <v>5865</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1010,7 +1026,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1028,50 +1044,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251547</v>
+        <v>251395</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>184.9154929577465</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>13129</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1084,7 +1103,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1102,50 +1121,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251742</v>
+        <v>251371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1163,8 +1185,10 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39749</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1172,54 +1196,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251268</v>
+        <v>251396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1228,19 +1255,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1248,54 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251164</v>
+        <v>251548</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>204.0816326530612</v>
+        <v>206.90625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>10000</v>
+        <v>13242</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1308,7 +1336,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1326,50 +1354,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-1.416059027777778</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251840</v>
+        <v>251268</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 08:52:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 08:52:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 08:52:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1378,17 +1409,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39758</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1396,15 +1429,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39758</v>
+        <v>39666</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1417,29 +1453,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>109.46875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 08:52:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 09:09:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 09:09:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1480,44 +1516,47 @@
       <c r="R14" s="1" t="n">
         <v>-1.514301215277778</v>
       </c>
+      <c r="S14" s="1" t="n">
+        <v>-1.457269965277778</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250759</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1526,7 +1565,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1548,50 +1587,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.5261067708333333</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-0.4690755208333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251456</v>
+        <v>251227</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>147.5245901639344</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-08 11:30:28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-08 11:30:28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-08 11:30:28</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1600,14 +1642,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
         <v>39746</v>
@@ -1622,50 +1664,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-2.5365234375</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-2.4794921875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251477</v>
+        <v>251421</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>422.5211267605634</v>
+        <v>81.9375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:30:28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>29999</v>
+        <v>5244</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1683,8 +1728,10 @@
       <c r="M17" t="n">
         <v>76</v>
       </c>
-      <c r="N17" t="n">
-        <v>39760</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1692,20 +1739,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39760</v>
+        <v>39762</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1713,33 +1763,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>188.640625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 13:24:24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 13:24:24</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-09 08:33:02</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1748,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1766,54 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4133138020833333</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>-0.3562825520833333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251227</v>
+        <v>251547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1822,17 +1875,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1840,54 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251421</v>
+        <v>250759</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>81.9375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5244</v>
+        <v>8398</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1896,19 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>76</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1916,20 +1970,23 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39762</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251229</v>
+        <v>251416</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1940,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>263.9295774647887</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1959,11 +2016,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-09 08:19:15</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18739</v>
+        <v>11222</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1972,74 +2029,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N21" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251782</v>
+        <v>251453</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>188.640625</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-09 08:19:15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-09 08:36:15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-09 08:36:15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-09 09:46:40</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12073</v>
+        <v>5000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2048,17 +2104,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2066,54 +2124,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39754</v>
+        <v>39742</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251284</v>
+        <v>251229</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40.5</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>297.0909090909091</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 09:46:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 10:07:40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 10:07:40</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 14:31:36</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>16340</v>
+        <v>18739</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2122,17 +2183,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39747</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2140,15 +2203,18 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2224,6 +2290,9 @@
       <c r="R24" s="1" t="n">
         <v>-1.442361111111111</v>
       </c>
+      <c r="S24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2298,6 +2367,9 @@
       <c r="R25" s="1" t="n">
         <v>-1.466666666666667</v>
       </c>
+      <c r="S25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2374,65 +2446,66 @@
       <c r="R26" s="1" t="n">
         <v>-16.58293231612268</v>
       </c>
+      <c r="S26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>29999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39760</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2440,20 +2513,23 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>39760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-2.471889671365741</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250894</v>
+        <v>251164</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2461,33 +2537,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>903.3061224489796</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:40:04</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:40:04</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:43:23</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>44262</v>
+        <v>10000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2496,70 +2572,75 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251416</v>
+        <v>250894</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>183.9672131147541</v>
+        <v>903.3061224489796</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-08 12:01:04</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-08 12:01:04</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 10:10:00</t>
+          <t>2025-05-12 11:04:23</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11222</v>
+        <v>44262</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2568,14 +2649,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N29" t="n">
         <v>39755</v>
@@ -2588,10 +2669,13 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,6 +2748,9 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -515,60 +515,62 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251651</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>46830</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,41 +637,39 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251456</v>
+        <v>251742</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -680,30 +680,30 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>147.5245901639344</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8999</v>
+        <v>8226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,57 +730,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251284</v>
+        <v>251840</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>297.0909090909091</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16340</v>
+        <v>5714</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,17 +789,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,78 +807,76 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251706</v>
+        <v>251456</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>50.79365079365079</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3200</v>
+        <v>8999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39746</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +884,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39764</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251455</v>
+        <v>251477</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>82.765625</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5297</v>
+        <v>29999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +943,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251391</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>91.640625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5865</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,7 +1024,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1044,53 +1042,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251395</v>
+        <v>251284</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>16340</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,53 +1115,53 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1176,19 +1174,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,57 +1192,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251396</v>
+        <v>251054</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251548</v>
+        <v>251081</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>206.90625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>13242</v>
+        <v>3012</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,17 +1328,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39749</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,57 +1348,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251268</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:52:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:52:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:52:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,19 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250923</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>109.46875</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 08:52:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:09:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:09:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7006</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1484,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,53 +1502,53 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.457269965277778</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251268</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1565,7 +1561,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1574,8 +1570,10 @@
       <c r="M15" t="n">
         <v>76</v>
       </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1583,57 +1581,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4690755208333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251227</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:30:28</t>
+          <t>2025-05-08 13:56:11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:30:28</t>
+          <t>2025-05-08 13:56:11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:30:28</t>
+          <t>2025-05-09 08:34:15</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,75 +1640,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-2.4794921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251421</v>
+        <v>251453</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>81.9375</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:30:28</t>
+          <t>2025-05-09 08:34:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-09 08:51:15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-09 08:51:15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-09 10:01:40</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5244</v>
+        <v>5000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,18 +1715,18 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>39762 (non in estrazione)</t>
+          <t>39742 (non in estrazione)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1739,11 +1735,11 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39762</v>
+        <v>39742</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1755,41 +1751,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251782</v>
+        <v>251229</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>188.640625</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-09 10:01:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:24</t>
+          <t>2025-05-09 10:22:40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:24</t>
+          <t>2025-05-09 10:22:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 08:33:02</t>
+          <t>2025-05-09 14:46:36</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12073</v>
+        <v>18739</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,17 +1794,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,57 +1814,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39754</v>
+        <v>39723</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.3562825520833333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,53 +1895,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1950,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1968,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251416</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>158.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:15</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2033,19 +2031,21 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2053,49 +2053,49 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251453</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>70.4225352112676</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:15</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:36:15</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:36:15</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:40</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>39742 (non in estrazione)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2124,57 +2124,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39742</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251229</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>263.9295774647887</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:40</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:40</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:40</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:31:36</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>18739</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2192,10 +2192,8 @@
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N23" t="n">
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2203,57 +2201,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251050</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2262,17 +2260,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2280,57 +2278,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251054</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2339,17 +2337,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2357,57 +2355,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251225</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2416,19 +2414,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39747</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2436,57 +2432,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.4586588541666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>422.5211267605634</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:00:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2495,17 +2491,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2513,57 +2509,57 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-2.469075520833333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251164</v>
+        <v>251421</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>204.0816326530612</v>
+        <v>81.9375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:15:28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 11:32:28</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 11:32:28</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:54:24</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>10000</v>
+        <v>5244</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2572,17 +2568,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39749</v>
+        <v>76</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2590,57 +2588,57 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>39749</v>
+        <v>39762</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>903.3061224489796</v>
+        <v>188.640625</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:54:24</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:04</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:04</t>
+          <t>2025-05-08 13:09:24</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 11:04:23</t>
+          <t>2025-05-09 08:18:02</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2649,73 +2647,75 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>76</v>
       </c>
       <c r="N29" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-0.3458658854166667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>767.7049180327868</v>
+        <v>691.59375</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 08:18:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 08:37:02</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 08:37:02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 12:08:38</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>82.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251651</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>767.7049180327868</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>46830</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,73 +635,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251742</v>
+        <v>251395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8524590163935</v>
+        <v>35.34375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8226</v>
+        <v>2262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -734,53 +734,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251840</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,13 +793,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39758</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39758</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251456</v>
+        <v>251453</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>147.5245901639344</v>
+        <v>78.125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8999</v>
+        <v>5000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -875,8 +877,10 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39746</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -884,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39742</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251477</v>
+        <v>251396</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>422.5211267605634</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>29999</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -943,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -961,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251548</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>204.0816326530612</v>
+        <v>206.90625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>13242</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,7 +1028,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1042,53 +1046,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251284</v>
+        <v>250923</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0909090909091</v>
+        <v>109.46875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16340</v>
+        <v>7006</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,53 +1119,53 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251050</v>
+        <v>251225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1174,14 +1178,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
         <v>39747</v>
@@ -1196,49 +1200,49 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251054</v>
+        <v>251227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1251,17 +1255,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251081</v>
+        <v>251421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>42.42253521126761</v>
+        <v>81.9375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3012</v>
+        <v>5244</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,18 +1332,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39762 (non in estrazione)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1348,57 +1352,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39750</v>
+        <v>39762</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251782</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>188.640625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>12073</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,17 +1411,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,57 +1429,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>250894</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>691.59375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 13:45:45</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>44262</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,75 +1488,73 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251268</v>
+        <v>251284</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,19 +1563,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1608,30 +1608,30 @@
         <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>158.056338028169</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:56:11</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:56:11</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 08:34:15</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,35 +1644,37 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251453</v>
+        <v>250759</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1680,33 +1682,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>70.4225352112676</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 08:34:15</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 08:51:15</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 08:51:15</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:01:40</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5000</v>
+        <v>8398</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,19 +1717,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1735,18 +1735,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39742</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="18">
@@ -1759,29 +1759,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>263.9295774647887</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:01:40</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:40</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:22:40</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 14:46:36</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1830,41 +1830,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251416</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 10:28:07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 10:28:07</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 13:06:10</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>11222</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1877,90 +1877,90 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251706</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>3200</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1968,57 +1968,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251477</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>29999</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2027,17 +2027,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2045,53 +2045,53 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2104,19 +2104,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39747</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2124,57 +2122,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251054</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2183,17 +2181,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2201,57 +2199,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251081</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>3012</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,17 +2258,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="n">
-        <v>39749</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2278,57 +2278,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251651</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>46830</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2347,65 +2347,63 @@
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251225</v>
+        <v>251742</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2414,17 +2412,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2432,57 +2430,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.4586588541666667</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251227</v>
+        <v>251840</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:28</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2491,17 +2489,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2509,57 +2507,57 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.469075520833333</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251421</v>
+        <v>251456</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>81.9375</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:28</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:32:28</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:32:28</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:54:24</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5244</v>
+        <v>8999</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2568,19 +2566,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39746</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2588,57 +2584,57 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>39762</v>
+        <v>39746</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251782</v>
+        <v>251268</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
-        <v>188.640625</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:54:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:24</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:02</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2647,17 +2643,19 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>76</v>
       </c>
-      <c r="N29" t="n">
-        <v>39754</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2665,57 +2663,57 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39754</v>
+        <v>39666</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.3458658854166667</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250894</v>
+        <v>251164</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
-        <v>691.59375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:02</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:02</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:02</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:38</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>44262</v>
+        <v>10000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2724,34 +2722,36 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="31">

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>82.765625</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,53 +580,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251395</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>35.34375</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -721,8 +721,10 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251371</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:28:07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:28:07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 13:06:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,73 +795,69 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251453</v>
+        <v>251742</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>78.125</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5000</v>
+        <v>8226</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,15 +870,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +884,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39742</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251396</v>
+        <v>251840</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>5714</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,13 +947,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251548</v>
+        <v>251456</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>206.90625</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13242</v>
+        <v>8999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,13 +1024,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>109.46875</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,53 +1115,53 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251225</v>
+        <v>251268</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,7 +1174,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1187,8 +1183,10 @@
       <c r="M10" t="n">
         <v>76</v>
       </c>
-      <c r="N10" t="n">
-        <v>39747</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39666 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,57 +1194,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251227</v>
+        <v>251164</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1253,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,23 +1271,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251421</v>
+        <v>251455</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1297,33 +1295,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>81.9375</v>
+        <v>82.765625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5244</v>
+        <v>5297</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,19 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,23 +1348,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39762</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251782</v>
+        <v>251391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,33 +1372,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>188.640625</v>
+        <v>91.640625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12073</v>
+        <v>5865</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,17 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,23 +1425,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250894</v>
+        <v>251395</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1449,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>691.59375</v>
+        <v>35.34375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:45</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,73 +1484,75 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251284</v>
+        <v>251371</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,17 +1561,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1581,57 +1581,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251547</v>
+        <v>251453</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9154929577465</v>
+        <v>78.125</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13129</v>
+        <v>5000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,13 +1644,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1658,57 +1660,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39742</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250759</v>
+        <v>251396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>118.2816901408451</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8398</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,17 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1735,57 +1737,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251229</v>
+        <v>251548</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>263.9295774647887</v>
+        <v>206.90625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18739</v>
+        <v>13242</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1794,19 +1796,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1814,57 +1814,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251416</v>
+        <v>250923</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>158.056338028169</v>
+        <v>109.46875</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:10</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>11222</v>
+        <v>7006</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,94 +1873,94 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251706</v>
+        <v>251225</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1968,57 +1968,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>422.5211267605634</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2027,17 +2027,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2045,57 +2045,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251050</v>
+        <v>251421</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>81.9375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2104,17 +2104,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39747</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,57 +2124,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39747</v>
+        <v>39762</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251054</v>
+        <v>251782</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>188.640625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,17 +2183,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2199,57 +2201,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251081</v>
+        <v>250894</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>42.42253521126761</v>
+        <v>691.59375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 13:45:45</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3012</v>
+        <v>44262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,106 +2260,106 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251651</v>
+        <v>251706</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>767.7049180327868</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>46830</v>
+        <v>3200</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2369,41 +2371,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251742</v>
+        <v>251050</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D26" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2412,17 +2414,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2430,57 +2432,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251840</v>
+        <v>251054</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2489,17 +2491,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2507,57 +2509,57 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251456</v>
+        <v>251081</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D28" t="n">
-        <v>147.5245901639344</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8999</v>
+        <v>3012</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2566,17 +2568,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39746</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2584,57 +2588,57 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>39746</v>
+        <v>39750</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251268</v>
+        <v>251284</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>40.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2643,19 +2647,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N29" t="n">
+        <v>39747</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2663,57 +2665,57 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251164</v>
+        <v>251651</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>204.0816326530612</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>10000</v>
+        <v>46830</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2722,36 +2724,34 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -1287,41 +1287,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>82.765625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,41 +1330,39 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251391</v>
+        <v>251455</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1372,33 +1370,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>91.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>2025-05-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-07 07:19:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-07 07:19:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>2025-05-07 08:41:45</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-05-07 08:58:45</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-05-07 08:58:45</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:30:24</t>
-        </is>
-      </c>
       <c r="I13" t="n">
-        <v>5865</v>
+        <v>5297</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,7 +1409,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1429,19 +1427,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251395</v>
+        <v>251391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1452,30 +1450,30 @@
         <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>2025-05-07 08:41:45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-07 08:58:45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-05-07 08:58:45</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>2025-05-07 10:30:24</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:47:24</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:47:24</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:22:45</t>
-        </is>
-      </c>
       <c r="I14" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,7 +1486,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1510,15 +1508,15 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251371</v>
+        <v>251395</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1526,33 +1524,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>2025-05-07 10:30:24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:47:24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:47:24</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>2025-05-07 11:22:45</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1565,15 +1563,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N15" t="n">
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1581,23 +1577,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251453</v>
+        <v>251371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1605,33 +1601,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>78.125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>2025-05-07 11:22:45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2025-05-07 11:41:45</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:58:45</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,14 +1640,14 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>39742 (non in estrazione)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1660,23 +1656,23 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39742</v>
+        <v>39666</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251396</v>
+        <v>251453</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1684,33 +1680,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>78.125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2025-05-07 11:41:45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-07 11:58:45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-05-07 11:58:45</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>2025-05-07 13:16:52</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-05-07 13:37:52</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-05-07 13:37:52</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:13:13</t>
-        </is>
-      </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>5000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1723,13 +1719,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39749</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,23 +1735,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39742</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251548</v>
+        <v>251396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1761,33 +1759,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>2025-05-07 13:16:52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-07 13:37:52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-07 13:37:52</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>2025-05-07 14:13:13</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:32:13</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:32:13</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-08 09:59:07</t>
-        </is>
-      </c>
       <c r="I18" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1800,7 +1798,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1818,19 +1816,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1838,33 +1836,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>2025-05-07 14:13:13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:32:13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:32:13</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>2025-05-08 09:59:07</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:31:07</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:31:07</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:20:35</t>
-        </is>
-      </c>
       <c r="I19" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,14 +1871,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
         <v>39749</v>
@@ -1895,19 +1893,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251225</v>
+        <v>250923</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1915,33 +1913,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>2025-05-08 09:59:07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:31:07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:31:07</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>2025-05-08 12:20:35</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:37:35</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:37:35</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:37:35</t>
-        </is>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1954,13 +1952,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1968,23 +1966,23 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251227</v>
+        <v>251225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1992,29 +1990,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>2025-05-08 12:20:35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2025-05-08 12:37:35</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2037,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2045,23 +2043,23 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251421</v>
+        <v>251227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2069,33 +2067,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>81.9375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>2025-05-08 12:37:35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>2025-05-08 12:52:35</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:09:35</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5244</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2104,19 +2102,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2124,23 +2120,23 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39762</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251782</v>
+        <v>251421</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2148,33 +2144,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>188.640625</v>
+        <v>81.9375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>2025-05-08 12:52:35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:09:35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:09:35</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>2025-05-08 14:31:31</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:46:31</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:46:31</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:55:10</t>
-        </is>
-      </c>
       <c r="I23" t="n">
-        <v>12073</v>
+        <v>5244</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2192,8 +2188,10 @@
       <c r="M23" t="n">
         <v>76</v>
       </c>
-      <c r="N23" t="n">
-        <v>39754</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2201,23 +2199,23 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39754</v>
+        <v>39762</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2225,33 +2223,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>691.59375</v>
+        <v>188.640625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>2025-05-08 14:31:31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:46:31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:46:31</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>2025-05-09 09:55:10</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:14:10</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:14:10</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:45:45</t>
-        </is>
-      </c>
       <c r="I24" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,106 +2258,104 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>50.79365079365079</v>
+        <v>691.59375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 13:45:45</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3200</v>
+        <v>44262</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2371,60 +2367,62 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251050</v>
+        <v>251706</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39747</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2432,23 +2430,23 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251054</v>
+        <v>251050</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2456,29 +2454,29 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2025-05-09 10:37:00</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2517,15 +2515,15 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2533,33 +2531,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>2025-05-09 11:12:00</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2572,15 +2570,13 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N28" t="n">
+        <v>39747</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2588,57 +2584,57 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251284</v>
+        <v>251081</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40.5</v>
+        <v>125</v>
       </c>
       <c r="D29" t="n">
-        <v>297.0909090909091</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16340</v>
+        <v>3012</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2647,17 +2643,19 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39747</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2665,34 +2663,34 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D30" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2701,21 +2699,21 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2724,23 +2722,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="31">

--- a/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
+++ b/PS-VRP/OUTPUT_TEST/euristico_post.xlsx
@@ -515,60 +515,62 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>82.765625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +637,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>263.9295774647887</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,19 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:10</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,19 +795,21 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -815,49 +817,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251742</v>
+        <v>251371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -875,8 +877,10 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -884,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251840</v>
+        <v>251453</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>93.67213114754098</v>
+        <v>78.125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:58:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>5000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,13 +951,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39758</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39742 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -961,57 +967,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39758</v>
+        <v>39742</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-9.553385416666666</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-9.553385416666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251456</v>
+        <v>251396</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>147.5245901639344</v>
+        <v>35.34375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 13:16:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-07 13:37:52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8999</v>
+        <v>2262</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,13 +1030,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1044,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-0.5925130208333333</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-0.5925130208333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>422.5211267605634</v>
+        <v>206.90625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 14:13:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-07 14:32:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1103,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1121,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-1.416059027777778</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-1.416059027777778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251268</v>
+        <v>250923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:59:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 10:31:07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,19 +1180,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,57 +1198,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-1.514301215277778</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>-1.514301215277778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251164</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-08 12:20:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,57 +1275,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-0.5261067708333333</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-0.5261067708333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,39 +1334,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>39746</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-2.5365234375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>251421</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1370,33 +1376,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>82.765625</v>
+        <v>81.9375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 12:52:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:09:35</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>5244</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,17 +1411,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39749</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39762 (non in estrazione)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,23 +1431,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39762</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.6052300347222223</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.6052300347222223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251391</v>
+        <v>251782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1447,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>91.640625</v>
+        <v>188.640625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 14:31:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 14:46:31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5865</v>
+        <v>12073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1482,17 +1490,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,23 +1508,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.4133138020833333</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.4133138020833333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251395</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1524,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>35.34375</v>
+        <v>691.59375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 09:55:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 10:14:10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 13:45:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,71 +1567,69 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1636,19 +1642,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N16" t="n">
+        <v>39747</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1656,57 +1660,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251453</v>
+        <v>251054</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>78.125</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,19 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+      <c r="N17" t="n">
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1735,57 +1737,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39742</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251396</v>
+        <v>251081</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1794,17 +1796,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1812,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251548</v>
+        <v>251284</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D19" t="n">
-        <v>206.90625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13242</v>
+        <v>16340</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,17 +1875,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1889,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250923</v>
+        <v>251742</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>109.46875</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7006</v>
+        <v>8226</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1948,14 +1952,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
         <v>39749</v>
@@ -1970,53 +1974,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,57 +2047,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,14 +2106,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
         <v>39746</v>
@@ -2124,53 +2128,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-2.611839708564815</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251421</v>
+        <v>251547</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>81.9375</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5244</v>
+        <v>13129</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,19 +2183,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2199,57 +2201,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39762</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251782</v>
+        <v>250759</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>188.640625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12073</v>
+        <v>8398</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,17 +2260,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2276,57 +2278,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>691.59375</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-08 13:41:11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:45</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2335,27 +2337,31 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2367,74 +2373,70 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>50.79365079365079</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:05:07</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:28:07</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:28:07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 13:06:10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3200</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2446,41 +2448,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251050</v>
+        <v>251477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:19:31</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2489,17 +2491,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2507,57 +2509,57 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.471889671365741</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.471889671365741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251054</v>
+        <v>251651</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2566,75 +2568,73 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N28" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251081</v>
+        <v>251268</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2643,18 +2643,18 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39666 (non in estrazione)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2663,57 +2663,57 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39750</v>
+        <v>39666</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-14 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-24.32430555555555</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-24.32430555555555</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251284</v>
+        <v>251164</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40.5</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
-        <v>297.0909090909091</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:47:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 08:34:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 11:58:04</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>16340</v>
+        <v>10000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2722,17 +2722,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2740,18 +2740,18 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.498667800451389</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.498667800451389</v>
       </c>
     </row>
     <row r="31">
